--- a/docs/templates/ss_dataschema - template.xlsx
+++ b/docs/templates/ss_dataschema - template.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,12 +376,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mlstr::rule_category</t>
+          <t>Mlstr_harmo::rule_category</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Mlstr::algorithm</t>
+          <t>Mlstr_harmo::algorithm</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -391,7 +391,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Mlstr::status</t>
+          <t>Mlstr_harmo::status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mlstr_harmo::status_detail</t>
         </is>
       </c>
     </row>
@@ -431,6 +436,11 @@
           <t>complete</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>identical</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -455,17 +465,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>'study_1'</t>
+          <t>"TOKYO"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>STUDY_1 %&gt;% mutate( adm_study = 'study_1') %&gt;% select(1,adm_study)</t>
+          <t>STUDY_1 %&gt;% mutate( adm_study = "TOKYO") %&gt;% select(1,adm_study)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>complete</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>unknown</t>
         </is>
       </c>
     </row>
